--- a/过滤/过滤输出文件/过滤初拟合数据.xlsx
+++ b/过滤/过滤输出文件/过滤初拟合数据.xlsx
@@ -19,16 +19,16 @@
     <t>Δθ/Δq 1</t>
   </si>
   <si>
+    <t>q 1</t>
+  </si>
+  <si>
     <t>Δθ/Δq 2</t>
   </si>
   <si>
-    <t>Δθ/Δq 3</t>
+    <t>q 2</t>
   </si>
   <si>
-    <t>q 1</t>
-  </si>
-  <si>
-    <t>q 2</t>
+    <t>Δθ/Δq 3</t>
   </si>
   <si>
     <t>q 3</t>
@@ -420,16 +420,16 @@
         <v>889.0535676476816</v>
       </c>
       <c r="B2">
+        <v>0.009943157894736841</v>
+      </c>
+      <c r="C2">
         <v>734.173195003176</v>
-      </c>
-      <c r="C2">
-        <v>454.5839508786788</v>
       </c>
       <c r="D2">
         <v>0.009943157894736841</v>
       </c>
       <c r="E2">
-        <v>0.009943157894736841</v>
+        <v>454.5839508786788</v>
       </c>
       <c r="F2">
         <v>0.009943157894736841</v>
@@ -440,16 +440,16 @@
         <v>2021.490578022444</v>
       </c>
       <c r="B3">
+        <v>0.02982947368421052</v>
+      </c>
+      <c r="C3">
         <v>1056.505399110735</v>
-      </c>
-      <c r="C3">
-        <v>837.7620156680077</v>
       </c>
       <c r="D3">
         <v>0.02982947368421052</v>
       </c>
       <c r="E3">
-        <v>0.02982947368421052</v>
+        <v>837.7620156680077</v>
       </c>
       <c r="F3">
         <v>0.02982947368421052</v>
@@ -460,16 +460,16 @@
         <v>3005.081515985602</v>
       </c>
       <c r="B4">
+        <v>0.04971578947368421</v>
+      </c>
+      <c r="C4">
         <v>1454.266356129579</v>
-      </c>
-      <c r="C4">
-        <v>1158.585644717341</v>
       </c>
       <c r="D4">
         <v>0.04971578947368421</v>
       </c>
       <c r="E4">
-        <v>0.04971578947368421</v>
+        <v>1158.585644717341</v>
       </c>
       <c r="F4">
         <v>0.04971578947368421</v>
@@ -480,16 +480,16 @@
         <v>3307.299385983485</v>
       </c>
       <c r="B5">
+        <v>0.06960210526315788</v>
+      </c>
+      <c r="C5">
         <v>1517.626508575058</v>
-      </c>
-      <c r="C5">
-        <v>1267.705907262333</v>
       </c>
       <c r="D5">
         <v>0.06960210526315788</v>
       </c>
       <c r="E5">
-        <v>0.06960210526315788</v>
+        <v>1267.705907262333</v>
       </c>
       <c r="F5">
         <v>0.06960210526315788</v>
@@ -500,16 +500,16 @@
         <v>3919.780859623122</v>
       </c>
       <c r="B6">
+        <v>0.08948842105263158</v>
+      </c>
+      <c r="C6">
         <v>2061.719246241797</v>
-      </c>
-      <c r="C6">
-        <v>1639.318229938598</v>
       </c>
       <c r="D6">
         <v>0.08948842105263158</v>
       </c>
       <c r="E6">
-        <v>0.08948842105263158</v>
+        <v>1639.318229938598</v>
       </c>
       <c r="F6">
         <v>0.08948842105263158</v>
@@ -520,16 +520,16 @@
         <v>4945.109040863857</v>
       </c>
       <c r="B7">
+        <v>0.1093747368421052</v>
+      </c>
+      <c r="C7">
         <v>2407.182934575482</v>
-      </c>
-      <c r="C7">
-        <v>1746.427059072624</v>
       </c>
       <c r="D7">
         <v>0.1093747368421052</v>
       </c>
       <c r="E7">
-        <v>0.1093747368421052</v>
+        <v>1746.427059072624</v>
       </c>
       <c r="F7">
         <v>0.1093747368421052</v>
@@ -540,16 +540,16 @@
         <v>5587.259157315267</v>
       </c>
       <c r="B8">
+        <v>0.1292610526315789</v>
+      </c>
+      <c r="C8">
         <v>2715.435104806268</v>
-      </c>
-      <c r="C8">
-        <v>2053.170654245184</v>
       </c>
       <c r="D8">
         <v>0.1292610526315789</v>
       </c>
       <c r="E8">
-        <v>0.1292610526315789</v>
+        <v>2053.170654245184</v>
       </c>
       <c r="F8">
         <v>0.1292610526315789</v>
@@ -560,16 +560,16 @@
         <v>6533.135718822784</v>
       </c>
       <c r="B9">
+        <v>0.1491473684210526</v>
+      </c>
+      <c r="C9">
         <v>2970.38428964641</v>
-      </c>
-      <c r="C9">
-        <v>2204.531018420495</v>
       </c>
       <c r="D9">
         <v>0.1491473684210526</v>
       </c>
       <c r="E9">
-        <v>0.1491473684210526</v>
+        <v>2204.531018420495</v>
       </c>
       <c r="F9">
         <v>0.1491473684210526</v>
@@ -580,16 +580,16 @@
         <v>12912.39678170654</v>
       </c>
       <c r="B10">
+        <v>0.1690336842105263</v>
+      </c>
+      <c r="C10">
         <v>4247.644505610842</v>
-      </c>
-      <c r="C10">
-        <v>2765.720940080458</v>
       </c>
       <c r="D10">
         <v>0.1690336842105263</v>
       </c>
       <c r="E10">
-        <v>0.1690336842105263</v>
+        <v>2765.720940080458</v>
       </c>
       <c r="F10">
         <v>0.1690336842105263</v>
@@ -600,16 +600,16 @@
         <v>133972.0251958501</v>
       </c>
       <c r="B11">
+        <v>0.18892</v>
+      </c>
+      <c r="C11">
         <v>21719.96082998094</v>
-      </c>
-      <c r="C11">
-        <v>6064.974592420073</v>
       </c>
       <c r="D11">
         <v>0.18892</v>
       </c>
       <c r="E11">
-        <v>0.18892</v>
+        <v>6064.974592420073</v>
       </c>
       <c r="F11">
         <v>0.18892</v>
